--- a/yxf_yixue/utils/cexcel/基础表-洛书九宫格.xlsx
+++ b/yxf_yixue/utils/cexcel/基础表-洛书九宫格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宫五行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宫阴阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +217,50 @@
   </si>
   <si>
     <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫数五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫卦五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,15 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,22 +641,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,22 +670,25 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -653,22 +699,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -679,22 +728,25 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -705,22 +757,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -731,22 +786,25 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
         <v>69</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -757,22 +815,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -783,22 +844,25 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -809,22 +873,25 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -835,34 +902,37 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/yxf_yixue/utils/cexcel/基础表-洛书九宫格.xlsx
+++ b/yxf_yixue/utils/cexcel/基础表-洛书九宫格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,87 +663,87 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -780,86 +780,86 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -867,57 +867,57 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
